--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-009 Informe de Auditoria UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-009 Informe de Auditoria UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC-FOR-09" sheetId="1" r:id="rId3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>GESTIÓN DE LA CALIDAD</t>
   </si>
@@ -174,16 +174,156 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="68">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -192,11 +332,17 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -205,41 +351,57 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -247,58 +409,12 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -310,7 +426,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -318,50 +434,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -377,11 +460,6 @@
     <border>
       <left/>
       <right/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
     </border>
@@ -392,144 +470,6 @@
       </right>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -632,6 +572,16 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -646,6 +596,11 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -842,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -854,202 +809,195 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="41" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="38" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="43" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="44" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="45" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="46" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="55" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="56" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="44" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="44" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="50" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="57" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="57" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="58" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="59" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="60" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="61" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="59" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="62" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="63" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="63" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="64" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="65" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="66" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="67" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="68" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="69" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="70" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="71" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="30" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,7 +1008,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1219,15 +1167,15 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1237,7 +1185,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.14"/>
-    <col customWidth="1" min="2" max="8" width="20.71"/>
+    <col customWidth="1" min="2" max="5" width="20.71"/>
+    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="7" max="8" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="1">
@@ -1262,739 +1212,737 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>43560.0</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="54" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="55"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="54" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="68"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" ht="30.0" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" ht="30.0" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="35"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="35"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
-      <c r="A40" s="76"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="35"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
-      <c r="A44" s="85"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="55"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="57"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
-      <c r="A46" s="76"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="57"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
-      <c r="A47" s="76"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
-      <c r="A48" s="76"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="75"/>
     </row>
     <row r="55" ht="30.0" hidden="1" customHeight="1">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" ht="30.0" hidden="1" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
     </row>
     <row r="57" ht="30.0" hidden="1" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
     </row>
     <row r="58" ht="30.0" hidden="1" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
     </row>
     <row r="59" ht="30.0" hidden="1" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
     </row>
     <row r="60" ht="30.0" hidden="1" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
     </row>
     <row r="61" ht="30.0" hidden="1" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" ht="30.0" hidden="1" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
     </row>
     <row r="63" ht="30.0" hidden="1" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
     </row>
     <row r="64" ht="30.0" hidden="1" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
     </row>
     <row r="65" ht="30.0" hidden="1" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
     </row>
     <row r="66" ht="30.0" hidden="1" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
     </row>
     <row r="67" ht="30.0" hidden="1" customHeight="1">
-      <c r="A67" s="93"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="93"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
     </row>
     <row r="68" ht="30.0" hidden="1" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
     </row>
     <row r="69" ht="30.0" hidden="1" customHeight="1">
-      <c r="A69" s="93"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2025,13 +1973,13 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
@@ -3032,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
